--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dkk1-Lrp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dkk1-Lrp4.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03798333333333333</v>
+        <v>0.022418</v>
       </c>
       <c r="H2">
-        <v>0.11395</v>
+        <v>0.06725399999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9225163333333333</v>
+        <v>0.3284223333333333</v>
       </c>
       <c r="N2">
-        <v>2.767549</v>
+        <v>0.985267</v>
       </c>
       <c r="O2">
-        <v>0.1157072327300135</v>
+        <v>0.04541528350839906</v>
       </c>
       <c r="P2">
-        <v>0.1157072327300135</v>
+        <v>0.04541528350839906</v>
       </c>
       <c r="Q2">
-        <v>0.03504024539444444</v>
+        <v>0.007362571868666666</v>
       </c>
       <c r="R2">
-        <v>0.31536220855</v>
+        <v>0.066263146818</v>
       </c>
       <c r="S2">
-        <v>0.1157072327300135</v>
+        <v>0.04541528350839906</v>
       </c>
       <c r="T2">
-        <v>0.1157072327300135</v>
+        <v>0.04541528350839906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03798333333333333</v>
+        <v>0.022418</v>
       </c>
       <c r="H3">
-        <v>0.11395</v>
+        <v>0.06725399999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.062688333333333</v>
+        <v>4.062688333333334</v>
       </c>
       <c r="N3">
         <v>12.188065</v>
       </c>
       <c r="O3">
-        <v>0.5095654217806198</v>
+        <v>0.5618014481290817</v>
       </c>
       <c r="P3">
-        <v>0.5095654217806198</v>
+        <v>0.5618014481290816</v>
       </c>
       <c r="Q3">
-        <v>0.1543144451944444</v>
+        <v>0.09107734705666666</v>
       </c>
       <c r="R3">
-        <v>1.38883000675</v>
+        <v>0.8196961235100001</v>
       </c>
       <c r="S3">
-        <v>0.5095654217806198</v>
+        <v>0.5618014481290817</v>
       </c>
       <c r="T3">
-        <v>0.5095654217806198</v>
+        <v>0.5618014481290816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03798333333333333</v>
+        <v>0.022418</v>
       </c>
       <c r="H4">
-        <v>0.11395</v>
+        <v>0.06725399999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.987644666666667</v>
+        <v>2.840427</v>
       </c>
       <c r="N4">
-        <v>8.962934000000001</v>
+        <v>8.521281</v>
       </c>
       <c r="O4">
-        <v>0.3747273454893667</v>
+        <v>0.3927832683625193</v>
       </c>
       <c r="P4">
-        <v>0.3747273454893667</v>
+        <v>0.3927832683625193</v>
       </c>
       <c r="Q4">
-        <v>0.1134807032555556</v>
+        <v>0.063676692486</v>
       </c>
       <c r="R4">
-        <v>1.0213263293</v>
+        <v>0.5730902323739999</v>
       </c>
       <c r="S4">
-        <v>0.3747273454893667</v>
+        <v>0.3927832683625193</v>
       </c>
       <c r="T4">
-        <v>0.3747273454893667</v>
+        <v>0.3927832683625193</v>
       </c>
     </row>
   </sheetData>
